--- a/Sample Test Results/Submit Regstration Process Sample.xlsx
+++ b/Sample Test Results/Submit Regstration Process Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A59C0E-065E-4276-BDF3-48A42B48BD60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D2DB1-D323-45F5-8800-5CC6B4845892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>last name</t>
   </si>
@@ -218,81 +218,6 @@
     <t>This sheet is for validation and will not be processed by BP Test Suite master. Tester will need to write validation formulas as per Input/Expected Output data in worksheets to this sheet, so that output can be validated once output(s) gets populated from session data.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                       </t>
-  </si>
-  <si>
-    <t>item-id</t>
-  </si>
-  <si>
-    <t>item-key</t>
-  </si>
-  <si>
-    <t>loaded-time</t>
-  </si>
-  <si>
-    <t>completed-time</t>
-  </si>
-  <si>
-    <t>work-time-seconds</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>0f1e10ad-4a9f-434a-95e9-e2e825c45895</t>
-  </si>
-  <si>
-    <t>1d1711f9-0898-44c9-ad17-78f9369d49b8</t>
-  </si>
-  <si>
-    <t>f9831b68-900a-4839-a9d2-8794b2368b03</t>
-  </si>
-  <si>
-    <t>SourceType</t>
-  </si>
-  <si>
-    <t>Queue Name</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>First name:Data:collection</t>
-  </si>
-  <si>
-    <t>last name:Data:collection</t>
-  </si>
-  <si>
-    <t>Country:Data:collection</t>
-  </si>
-  <si>
-    <t>address:Data:collection</t>
-  </si>
-  <si>
-    <t>zip:Data:collection</t>
-  </si>
-  <si>
-    <t>phone:Data:collection</t>
-  </si>
-  <si>
-    <t>Attempts</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME: RegistrationQStatus - Input </t>
   </si>
   <si>
@@ -306,6 +231,9 @@
   <si>
     <t>PHONE:
 RegQGetItemData - Expected Output</t>
+  </si>
+  <si>
+    <t>password : admin</t>
   </si>
 </sst>
 </file>
@@ -386,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -401,7 +329,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,14 +344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -436,16 +363,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -745,7 +662,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1069,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,112 +1367,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BA6AF-3E01-44FD-BE68-34017D3CC402}">
-  <dimension ref="A5:F8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>44273.379953703705</v>
-      </c>
-      <c r="D6" s="8">
-        <v>44273.379953703705</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8">
-        <v>44273.379953703705</v>
-      </c>
-      <c r="D7" s="8">
-        <v>44273.379953703705</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8">
-        <v>44273.379953703705</v>
-      </c>
-      <c r="D8" s="8">
-        <v>44273.379965277774</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E24"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1399,7 @@
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,7 +1433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -1611,374 +1441,6 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>110030</v>
-      </c>
-      <c r="J10">
-        <v>4532342637</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>34343</v>
-      </c>
-      <c r="J15">
-        <v>58335432123</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20">
-        <v>3434</v>
-      </c>
-      <c r="J20">
-        <v>34342</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1990,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +1469,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2024,7 +1486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2041,7 +1503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -2049,333 +1511,6 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>110030</v>
-      </c>
-      <c r="G5">
-        <v>4532342637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>34343</v>
-      </c>
-      <c r="G10">
-        <v>58335432123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>3434</v>
-      </c>
-      <c r="G15">
-        <v>34342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2390,7 +1525,7 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,25 +1536,26 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="6"/>
@@ -2427,7 +1563,9 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
@@ -2436,25 +1574,25 @@
         <f>Input!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B2,RegistrationQStatus!$B$2:$F$20,5,FALSE)='Expected Output'!H2,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP(Input!B2,RegistrationQStatus!$B$2:$F$20,1,FALSE)),"fail","pass")</f>
-        <v>pass</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP('Expected Output'!B2,RegistrationQStatus!$B$2:$F$20,1,FALSE)),"fail","pass")</f>
-        <v>pass</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$E$10:$J$24,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B2,WriterOutput!B4:G17,4,FALSE)='Expected Output'!E2,"pass","fail")</f>
-        <v>pass</v>
+      <c r="B2" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B2, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H2, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C2" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B2,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B2,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B2,RegistrationQStatus!$B1:$B$40,1,FALSE)='Expected Output'!B2,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B2,WriterOutput!B4:G50,4,FALSE)='Expected Output'!E2,"pass","fail")</f>
+        <v>#N/A</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2470,25 +1608,25 @@
         <f>Input!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B3,RegistrationQStatus!$B$2:$F$20,5,FALSE)='Expected Output'!H3,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP(Input!B3,RegistrationQStatus!$B$2:$F$20,1,FALSE)),"fail","pass")</f>
-        <v>pass</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP('Expected Output'!B3,RegistrationQStatus!$B$2:$F$20,1,FALSE)),"fail","pass")</f>
-        <v>pass</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$E$10:$J$24,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B3,WriterOutput!B5:G18,4,FALSE)='Expected Output'!E3,"pass","fail")</f>
-        <v>pass</v>
+      <c r="B3" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B3, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H3, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B3,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B3,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B3,RegistrationQStatus!$B2:$B$40,1,FALSE)='Expected Output'!B3,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B3,WriterOutput!B5:G51,4,FALSE)='Expected Output'!E3,"pass","fail")</f>
+        <v>#N/A</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2504,25 +1642,25 @@
         <f>Input!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B4,RegistrationQStatus!$B$2:$F$20,5,FALSE)='Expected Output'!H4,"pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="C4" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP(Input!B4,RegistrationQStatus!$B$2:$F$20,1,FALSE)),"fail","pass")</f>
-        <v>pass</v>
-      </c>
-      <c r="D4" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP('Expected Output'!B4,RegistrationQStatus!$B$2:$F$20,1,FALSE)),"fail","pass")</f>
-        <v>pass</v>
-      </c>
-      <c r="E4" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$E$10:$J$24,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B4,WriterOutput!B6:G19,4,FALSE)='Expected Output'!E4,"pass","fail")</f>
-        <v>pass</v>
+      <c r="B4" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B4, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H4, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B4,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B4,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B4,RegistrationQStatus!$B3:$B$40,1,FALSE)='Expected Output'!B4,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B4,WriterOutput!B6:G52,4,FALSE)='Expected Output'!E4,"pass","fail")</f>
+        <v>#N/A</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2535,11 +1673,26 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H5, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B5,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5,RegistrationQStatus!$B4:$B$40,1,FALSE)='Expected Output'!B5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5,WriterOutput!B7:G53,4,FALSE)='Expected Output'!E5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2551,11 +1704,26 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H6, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B6,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6,RegistrationQStatus!$B5:$B$40,1,FALSE)='Expected Output'!B6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6,WriterOutput!B8:G54,4,FALSE)='Expected Output'!E6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2567,11 +1735,26 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H7, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B7,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7,RegistrationQStatus!$B6:$B$40,1,FALSE)='Expected Output'!B7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7,WriterOutput!B9:G55,4,FALSE)='Expected Output'!E7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2583,11 +1766,26 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H8, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B8,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8,RegistrationQStatus!$B7:$B$40,1,FALSE)='Expected Output'!B8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8,WriterOutput!B10:G56,4,FALSE)='Expected Output'!E8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2599,11 +1797,26 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H9, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B9,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9,RegistrationQStatus!$B8:$B$40,1,FALSE)='Expected Output'!B9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9,WriterOutput!B11:G57,4,FALSE)='Expected Output'!E9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2615,11 +1828,26 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H10, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B10,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10,RegistrationQStatus!$B9:$B$40,1,FALSE)='Expected Output'!B10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10,WriterOutput!B12:G58,4,FALSE)='Expected Output'!E10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2631,11 +1859,26 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H11, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B11,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11,RegistrationQStatus!$B10:$B$40,1,FALSE)='Expected Output'!B11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11,WriterOutput!B13:G59,4,FALSE)='Expected Output'!E11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2647,11 +1890,26 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H12, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B12,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12,RegistrationQStatus!$B11:$B$40,1,FALSE)='Expected Output'!B12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12,WriterOutput!B14:G60,4,FALSE)='Expected Output'!E12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2676,11 +1934,26 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H13, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B13,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13,RegistrationQStatus!$B12:$B$40,1,FALSE)='Expected Output'!B13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13,WriterOutput!B15:G61,4,FALSE)='Expected Output'!E13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2703,11 +1976,26 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H14, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B14,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14,RegistrationQStatus!$B13:$B$40,1,FALSE)='Expected Output'!B14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14,WriterOutput!B16:G62,4,FALSE)='Expected Output'!E14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2730,11 +2018,26 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H15, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B15,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15,RegistrationQStatus!$B14:$B$40,1,FALSE)='Expected Output'!B15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15,WriterOutput!B17:G63,4,FALSE)='Expected Output'!E15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2757,11 +2060,26 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H16, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B16,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16,RegistrationQStatus!$B15:$B$40,1,FALSE)='Expected Output'!B16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16,WriterOutput!B18:G64,4,FALSE)='Expected Output'!E16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2784,11 +2102,26 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H17, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B17,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17,RegistrationQStatus!$B16:$B$40,1,FALSE)='Expected Output'!B17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17,WriterOutput!B19:G65,4,FALSE)='Expected Output'!E17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2811,11 +2144,26 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H18, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B18,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18,RegistrationQStatus!$B17:$B$40,1,FALSE)='Expected Output'!B18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18,WriterOutput!B20:G66,4,FALSE)='Expected Output'!E18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2957,15 +2305,16 @@
       <c r="AB24" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="i34SqedyE/keD+L6KHzSmEdj3GzNEb87YtpoIR1pvpi7y5/OywIv0f3/k8clvCkI4H/AwkLL9ue/3x9E4WruVg==" saltValue="0ra1NC2R20JvHowkJDT36Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="R12:AB24"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:K18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
